--- a/VU uni notes/MTH302/Notes/leature 3 Working.xlsx
+++ b/VU uni notes/MTH302/Notes/leature 3 Working.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Leature 3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Provident Fund</t>
   </si>
@@ -84,15 +84,9 @@
     <t>Total Pesentage</t>
   </si>
   <si>
-    <t>Rate</t>
-  </si>
-  <si>
     <t>Total Gross Salary</t>
   </si>
   <si>
-    <t>Summary Total</t>
-  </si>
-  <si>
     <t>Total Allowances</t>
   </si>
   <si>
@@ -103,13 +97,19 @@
   </si>
   <si>
     <t>Utitlies   Allowances</t>
+  </si>
+  <si>
+    <t>Gross Remuneration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="[$Rs-420]\ #,##0.00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +133,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -230,23 +238,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -258,14 +396,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -275,12 +411,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,396 +715,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F43"/>
+  <dimension ref="C2:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="2" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="25">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="E4" s="26">
+        <f>$E$3*D4</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E5" s="26">
+        <f>$E$3*D5</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4">
-        <v>0.45</v>
-      </c>
-      <c r="D4">
-        <f>$D$3*C4</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="D6" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E6" s="26">
+        <f>$E$3*D6</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="18"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="18"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="27">
+        <f>SUM(E4:E6)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="27">
+        <f>SUM(E3,E9)</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="3:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="C13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3">
+        <f>(1/11*$E$3)/100</f>
+        <v>5.454545454545455</v>
+      </c>
+      <c r="E18" s="28">
+        <f>(1/11*$E$3)</f>
+        <v>545.4545454545455</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
+        <f>(1/11*$E$3)/100</f>
+        <v>5.454545454545455</v>
+      </c>
+      <c r="E19" s="28">
+        <f>(1/11*$E$3)</f>
+        <v>545.4545454545455</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33">
+        <f>SUM(E18:E19)</f>
+        <v>1090.909090909091</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="3:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="C22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3">
+        <f>(1/11*$E$3)/100</f>
+        <v>5.454545454545455</v>
+      </c>
+      <c r="E25" s="28">
+        <f>(1/11*$E$3)</f>
+        <v>545.4545454545455</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33">
+        <f>SUM(E25:E25)</f>
+        <v>545.4545454545455</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="3:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="28"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>18</v>
+      </c>
+      <c r="E30" s="28">
+        <f>(D30/($E$11*12))*$E$10*12</f>
+        <v>7363.636363636364</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>18</v>
+      </c>
+      <c r="E31" s="28">
+        <f>(D31/($E$11*12))*$E$10*12</f>
+        <v>7363.636363636364</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>12</v>
+      </c>
+      <c r="E32" s="28">
+        <f>(D32/($E$11*12))*$E$10*12</f>
+        <v>4909.0909090909099</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
+      <c r="D33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="28">
+        <f>SUM(E30:E32)</f>
+        <v>19636.36363636364</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="4"/>
+      <c r="D34" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="35">
+        <f>ROUND( (E33/(12*$E$10))*100,1)</f>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="3:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="C36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+      <c r="D37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="28"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="3">
+        <f>E34%</f>
+        <v>0.182</v>
+      </c>
+      <c r="E38" s="28">
+        <f>$E$10*D38</f>
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="E39" s="28">
+        <f t="shared" ref="E39:E40" si="0">$E$10*D39</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="22">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E40" s="28">
+        <f t="shared" si="0"/>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="32">
+        <f>SUM(D38:D40)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E41" s="33">
+        <f>D41*E3</f>
+        <v>1739.9999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="3:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="C43" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <f>$D$3*C5</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D6">
-        <f>$D$3*C6</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <f>SUM(D3:D9)</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="C13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="10">
-        <f>(1/11*$D$3)</f>
-        <v>909.09090909090912</v>
-      </c>
-      <c r="E18" s="12">
-        <f>(1/11*$D$3)/100</f>
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="10">
-        <f>(1/11*$D$3)</f>
-        <v>909.09090909090912</v>
-      </c>
-      <c r="E19" s="12">
-        <f>(1/11*$D$3)/100</f>
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="14">
-        <f>SUM(D18:D19)</f>
-        <v>1818.1818181818182</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="3:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="10">
-        <f>(1/11*$D$3)</f>
-        <v>909.09090909090912</v>
-      </c>
-      <c r="E25" s="12">
-        <f>(1/11*$D$3)/100</f>
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="14">
-        <f>SUM(D25:D25)</f>
-        <v>909.09090909090912</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="3:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C28" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="10">
-        <v>18</v>
-      </c>
-      <c r="E30" s="10">
-        <f>(D30/($D$11*12))*$D$10*12</f>
-        <v>16363.636363636362</v>
-      </c>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="10">
-        <v>18</v>
-      </c>
-      <c r="E31" s="10">
-        <f>(D31/($D$11*12))*$D$10*12</f>
-        <v>16363.636363636362</v>
-      </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="10">
-        <v>12</v>
-      </c>
-      <c r="E32" s="10">
-        <f>(D32/($D$11*12))*$D$10*12</f>
-        <v>10909.09090909091</v>
-      </c>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="9"/>
-      <c r="D33" s="10" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="10">
-        <f>SUM(E30:E32)</f>
-        <v>43636.363636363632</v>
-      </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="13"/>
-      <c r="D34" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="14">
-        <f>ROUND( (E33/(12*$D$10))*100,1)</f>
-        <v>18.2</v>
-      </c>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="3:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="C36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="9"/>
-      <c r="D37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="10">
-        <f>$E$34</f>
-        <v>18.2</v>
-      </c>
-      <c r="E38" s="10">
-        <f>D38%</f>
-        <v>0.182</v>
-      </c>
-      <c r="F38" s="11">
-        <f>$D$10*E38</f>
-        <v>3640</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C39" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="10">
-        <v>5</v>
-      </c>
-      <c r="E39" s="10">
-        <f t="shared" ref="E39:E40" si="0">D39%</f>
-        <v>0.05</v>
-      </c>
-      <c r="F39" s="11">
-        <f>$D$10*E39</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="10">
-        <v>5.8</v>
-      </c>
-      <c r="E40" s="10">
-        <f t="shared" si="0"/>
-        <v>5.7999999999999996E-2</v>
-      </c>
-      <c r="F40" s="11">
-        <f>$D$10*E40</f>
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="14">
-        <f>SUM(D38:D40)</f>
-        <v>29</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="16">
-        <f>SUM(F38:F40)</f>
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="C43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38">
+        <f>SUM(E41,E26,E20,E10)</f>
+        <v>12376.363636363636</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C43:E43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
